--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1158,6 +1158,132 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jun-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HSSH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sông Hồng Việt - Cụm CN Quất Động</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Route1</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1221</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jun-21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>HSSH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ngôi Sao Châu Á - Đan Phượng</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Route1</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>113</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1221</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>113</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
